--- a/spliced/falling/2023-03-25_18-02-51/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.0861319974064827</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0229074470698833</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0600175112485885</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0545197241008281</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-51/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,310 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0229074470698833</v>
+        <v>-0.0186313893646001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0265726372599601</v>
+        <v>-0.1148426681756973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0036651915870606</v>
+        <v>0.057115901261568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.011148290708661</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0045814891345798</v>
+        <v>-0.1070541366934776</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0197004042565822</v>
+        <v>0.1860084682703018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0502436682581901</v>
+        <v>-0.007941247895359899</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0682641938328743</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0099265603348612</v>
+        <v>0.0245873257517814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0494800843298435</v>
+        <v>-0.039248090237379</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3627012372016907</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144622340798378</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0519235469400882</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6624833345413208</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2745839357376098</v>
+        <v>0.0545197241008281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4827362596988678</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.633009135723114</v>
+        <v>-0.0485637858510017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4114177525043487</v>
+        <v>0.0387899428606033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.427911102771759</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3917173445224762</v>
+        <v>0.0097738439217209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2205223590135574</v>
+        <v>-0.0050396383740007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1753183305263519</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8854491710662842</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3863722681999206</v>
+        <v>0.0036651915870606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0439822971820831</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="B10" t="n">
-        <v>1.484707951545715</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.550223231315613</v>
+        <v>-0.0197004042565822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4473060667514801</v>
+        <v>0.0502436682581901</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.502867698669434</v>
+        <v>-0.0682641938328743</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.500508785247803</v>
+        <v>0.0099265603348612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.311222195625305</v>
+        <v>-0.0494800843298435</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5021312236785889</v>
+        <v>-0.3627012372016907</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.749059915542602</v>
+        <v>0.144622340798378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0354301854968071</v>
+        <v>-0.0519235469400882</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5714644193649292</v>
+        <v>-0.6624833345413208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3466660380363464</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0313068442046642</v>
+        <v>0.4827362596988678</v>
       </c>
       <c r="B14" t="n">
-        <v>1.005331516265869</v>
+        <v>-0.633009135723114</v>
       </c>
       <c r="C14" t="n">
-        <v>1.156062483787537</v>
+        <v>0.4114177525043487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0287106670439243</v>
+        <v>0.427911102771759</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3336851298809051</v>
+        <v>0.3917173445224762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0453567430377006</v>
+        <v>0.2205223590135574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0639881342649459</v>
+        <v>0.1753183305263519</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8878926634788513</v>
+        <v>0.8854491710662842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5963571667671204</v>
+        <v>-0.3863722681999206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1010981947183609</v>
+        <v>0.0439822971820831</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2167044430971145</v>
+        <v>1.484707951545715</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2678644061088562</v>
+        <v>-1.550223231315613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.08964447677135461</v>
+        <v>-0.4473060667514801</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2109012305736541</v>
+        <v>-2.502867698669434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0058032199740409</v>
+        <v>-7.500508785247803</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-1.311222195625305</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1492038369178772</v>
+        <v>-0.5021312236785889</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1434006094932556</v>
+        <v>-1.749059915542602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1841758787631988</v>
+        <v>-0.0354301854968071</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1082758679986</v>
+        <v>0.5714644193649292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.3466660380363464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.0313068442046642</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.005331516265869</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.156062483787537</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0287106670439243</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3336851298809051</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0453567430377006</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0639881342649459</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8878926634788513</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5963571667671204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1010981947183609</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2167044430971145</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2678644061088562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.08964447677135461</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2109012305736541</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0058032199740409</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0484110713005065</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1492038369178772</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1434006094932556</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1841758787631988</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1082758679986</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0047342055477201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.102472648024559</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.0048869219608604</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>0.0861319974064827</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0229074470698833</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0600175112485885</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0545197241008281</v>
       </c>
     </row>
   </sheetData>
